--- a/HOLDING.xlsx
+++ b/HOLDING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3ea72652d11e91e/Documents/Maastricht University/Biomedical Sciences/BMS year 3/BBS3006 - Thesis ^0 Internship/Butterfly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{13F61417-8FF0-428B-9F26-FA5110744294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206646EE-8F6D-4593-AB48-07DCF6D97ED3}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{13F61417-8FF0-428B-9F26-FA5110744294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6995277A-5A7B-43B0-98FC-0EA5208083EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>Temp Min (°C)</t>
   </si>
@@ -274,13 +274,79 @@
   </si>
   <si>
     <t>21.5</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>41.1</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>47.4</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>50.9</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>45.4</t>
+  </si>
+  <si>
+    <t>53.1</t>
+  </si>
+  <si>
+    <t>46.4</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>44.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +370,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,6 +435,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,23 +833,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45804</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>0.5083333333333333</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -932,23 +1013,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45807</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>0.5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -993,21 +1074,337 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="7">
+        <v>45810</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>45810</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6">
+        <v>45811</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>45811</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>45814</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
